--- a/config_multi.xls/player_task.xlsx
+++ b/config_multi.xls/player_task.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVNzhugan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7737E9DE-2E96-4A98-A3F1-ED8A0A5EFBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12480" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="player_task" sheetId="1" r:id="rId1"/>
@@ -19,14 +20,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>微软用户</author>
     <author/>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -260,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="2" shapeId="0">
+    <comment ref="O1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="2" shapeId="0">
+    <comment ref="O2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -305,126 +306,6 @@
           </rPr>
           <t xml:space="preserve">
 弹窗分享</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O4" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-打开麻将合集</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-打开比赛场</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O6" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-打开商城</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O7" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-打开背包</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-约局</t>
         </r>
       </text>
     </comment>
@@ -433,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -480,176 +361,59 @@
     <t>transition:string</t>
   </si>
   <si>
+    <t>shareTitle</t>
+  </si>
+  <si>
+    <t>shareTask</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>1001,500</t>
   </si>
   <si>
-    <t>20</t>
+    <t>-1</t>
   </si>
   <si>
     <t>gameyj_hall/prefabs/klb_hall_share</t>
   </si>
   <si>
+    <t>blackjackTitle</t>
+  </si>
+  <si>
+    <t>blackjackTask</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1001,5000</t>
+  </si>
+  <si>
+    <t>TexasHoldemTitle</t>
+  </si>
+  <si>
+    <t>TexasHoldemTask</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1001,200</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>type:32</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>majiangheji</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>gameyj_hall/prefabs/klb_hall_Match</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>1001,5000</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>gameyj_hall/prefabs/klb_hall_Shop</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>1001,1000</t>
-  </si>
-  <si>
-    <t>gameyj_hall/prefabs/klb_hall_Bag</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>C_ROOM</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001,100</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001,200</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001,300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001,500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>活跃值60</t>
-  </si>
-  <si>
-    <t>活跃值达到60可领取宝箱哦</t>
-  </si>
-  <si>
-    <t>完成1次游戏分享</t>
-  </si>
-  <si>
-    <t>在斗地主-金币场进行5次对局</t>
-  </si>
-  <si>
-    <t>在（任意玩法）麻将-金币场进行5次对局</t>
-  </si>
-  <si>
-    <t>参加3次比赛场</t>
-  </si>
-  <si>
-    <t>完成1次充值</t>
-  </si>
-  <si>
-    <t>完成1次红包兑换</t>
-  </si>
-  <si>
-    <t>完成1次（任意玩法）约局</t>
-  </si>
-  <si>
-    <t>活跃值20</t>
-  </si>
-  <si>
-    <t>活跃值达到20可领取宝箱哦</t>
-  </si>
-  <si>
-    <t>活跃值40</t>
-  </si>
-  <si>
-    <t>活跃值达到40可领取宝箱哦</t>
-  </si>
-  <si>
-    <t>活跃值80</t>
-  </si>
-  <si>
-    <t>活跃值达到80可领取宝箱哦</t>
-  </si>
-  <si>
-    <t>活跃值100</t>
-  </si>
-  <si>
-    <t>活跃值达到100可领取宝箱哦</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -674,6 +438,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -724,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,7 +511,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,11 +865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1165,11 +945,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1178,31 +961,31 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L2" s="4">
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -1210,44 +993,44 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4">
         <v>1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -1255,451 +1038,63 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L4" s="4">
         <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="2"/>
+    <row r="5" spans="1:16" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="2"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="4">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>42</v>
-      </c>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O7" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <ignoredErrors>
+    <ignoredError sqref="D4" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>